--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2699178.688323519</v>
+        <v>2795848.664807893</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>79.22210190382104</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>363.8088252494408</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>110.9272034736095</v>
+        <v>12.39397944700521</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>139.9164830972605</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>167.3468737284994</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>27.37086888118525</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>139.8939792152981</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>139.4384002192471</v>
       </c>
       <c r="Y8" t="n">
-        <v>29.39628263980236</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>38.96115854196098</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.5968903908885</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1576,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>79.62772012356886</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>131.5730391207948</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>163.4028884840288</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>23.10718450786062</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>16.99141685203552</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247835</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2239,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>18.26879610203982</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>182.7337974253368</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2476,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>132.6131796194396</v>
       </c>
       <c r="D25" t="n">
-        <v>5.348319023253607</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2533,13 +2535,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>68.9533441445169</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>140.8206898353893</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>90.5565747765105</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>105.6706584231147</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3244,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534515</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881757</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.461306382984868</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>134.6567107128897</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>48.37445137896881</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3715,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722632</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3758,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>59.90320919298912</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>281.0650962132168</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18.26879610203982</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4186,7 +4188,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>1.231144003836948</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>962.91501986716</v>
+        <v>974.6042763530502</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>974.6042763530502</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>974.6042763530502</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>588.8160237548059</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.654191907093</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y2" t="n">
-        <v>1349.514859931282</v>
+        <v>974.6042763530502</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4413,19 +4415,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2068.619613065019</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="C4" t="n">
-        <v>2068.619613065019</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="D4" t="n">
-        <v>2068.619613065019</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E4" t="n">
-        <v>2068.619613065019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>2068.619613065019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>2068.619613065019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>2068.619613065019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2469.840903686824</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>2180.667293341392</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>2180.667293341392</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>2180.667293341392</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>2068.619613065019</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="Y4" t="n">
-        <v>2068.619613065019</v>
+        <v>488.3016257164451</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2351.934357141989</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1978.468598880909</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>195.2500315327868</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>195.2500315327868</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259437</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1533.27522618254</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.312709242129</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>1949.568281034341</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X8" t="n">
-        <v>1949.568281034341</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y8" t="n">
-        <v>1919.875066246662</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>243.4143268306406</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="C10" t="n">
-        <v>243.4143268306406</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="D10" t="n">
-        <v>93.29768741830483</v>
+        <v>2184.597369858234</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>2184.597369858234</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>2037.707422360324</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286579</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286579</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="X10" t="n">
-        <v>243.4143268306406</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="Y10" t="n">
-        <v>243.4143268306406</v>
+        <v>2334.714009270569</v>
       </c>
     </row>
     <row r="11">
@@ -5039,13 +5041,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M11" t="n">
         <v>2216.257005193957</v>
@@ -5069,7 +5071,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5118,10 +5120,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320242</v>
@@ -5136,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F13" t="n">
         <v>506.8067350374723</v>
@@ -5224,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1684.225541402673</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1395.122674528316</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.343466104704</v>
+        <v>1395.122674528316</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>1105.705504491355</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>877.7159535933382</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>656.9233744498081</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5257,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>4074.966626751958</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4469.740993109136</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>673.3827746590082</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="C16" t="n">
-        <v>540.4807149410336</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1509.773701977918</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1509.773701977918</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>1255.089213772031</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570255</v>
+        <v>965.6720437350702</v>
       </c>
       <c r="X16" t="n">
-        <v>673.3827746590082</v>
+        <v>965.6720437350702</v>
       </c>
       <c r="Y16" t="n">
-        <v>673.3827746590082</v>
+        <v>965.6720437350702</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,52 +5515,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>913.1101661838546</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1364.144379432264</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>1897.676284104188</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,13 +5597,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
         <v>1715.000032008795</v>
@@ -5613,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5625,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>747.3928343215996</v>
+        <v>727.6246893481016</v>
       </c>
       <c r="C19" t="n">
-        <v>578.4566513936927</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D19" t="n">
-        <v>428.340011981357</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E19" t="n">
-        <v>280.4269183989638</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5674,16 +5676,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1667.240599230347</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W19" t="n">
-        <v>1377.823429193387</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="X19" t="n">
-        <v>1149.833878295369</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="Y19" t="n">
-        <v>929.0412991518393</v>
+        <v>909.2731541783413</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5741,55 +5743,55 @@
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K20" t="n">
-        <v>818.2062848686776</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L20" t="n">
-        <v>1682.725100522032</v>
+        <v>1803.682313196075</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2649.23046036182</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3196.009277420602</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973205</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161936</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549423</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494868</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763718</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468574</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5832,13 +5834,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
         <v>1715.000032008795</v>
@@ -5850,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,22 +5861,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517389</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.9043113423046</v>
+        <v>3697.132084008988</v>
       </c>
       <c r="C22" t="n">
-        <v>260.9043113423046</v>
+        <v>3528.195901081081</v>
       </c>
       <c r="D22" t="n">
-        <v>260.9043113423046</v>
+        <v>3378.079261668745</v>
       </c>
       <c r="E22" t="n">
-        <v>260.9043113423046</v>
+        <v>3378.079261668745</v>
       </c>
       <c r="F22" t="n">
-        <v>114.0143638443942</v>
+        <v>3231.189314170835</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>3063.486477545554</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>4399.118398302892</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>4214.538804943966</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>3925.121634907006</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>3697.132084008988</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423046</v>
+        <v>3697.132084008988</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5968,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839486</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277735</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176201</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1650.184003770975</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867999</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N23" t="n">
-        <v>2883.993034926781</v>
+        <v>3163.468180669546</v>
       </c>
       <c r="O23" t="n">
-        <v>3763.957685256236</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,7 +6098,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6105,7 +6107,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.6864413838521</v>
+        <v>838.2368056224238</v>
       </c>
       <c r="C25" t="n">
-        <v>709.6864413838521</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D25" t="n">
         <v>704.2840989361212</v>
@@ -6148,16 +6150,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
@@ -6169,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1355.643526557402</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1355.643526557402</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>1066.226356520441</v>
       </c>
       <c r="X25" t="n">
-        <v>709.6864413838521</v>
+        <v>838.2368056224238</v>
       </c>
       <c r="Y25" t="n">
-        <v>709.6864413838521</v>
+        <v>838.2368056224238</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6214,49 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366029</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195858</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>2762.02852125464</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604873</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390112</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>973.7726509601081</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C28" t="n">
-        <v>804.8364680322012</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D28" t="n">
-        <v>654.7198286198654</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>506.8067350374723</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6385,16 +6387,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O28" t="n">
         <v>1646.12566951853</v>
@@ -6409,25 +6411,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1577.410141987876</v>
       </c>
       <c r="V28" t="n">
-        <v>1453.060509258584</v>
+        <v>1322.725653781989</v>
       </c>
       <c r="W28" t="n">
-        <v>1383.410666688365</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X28" t="n">
-        <v>1155.421115790348</v>
+        <v>891.0653626991802</v>
       </c>
       <c r="Y28" t="n">
-        <v>1155.421115790348</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3851.472756726941</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353929</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
         <v>1715.000032008795</v>
@@ -6573,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6625,13 +6627,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O31" t="n">
         <v>1646.12566951853</v>
@@ -6646,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1384.083427404133</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>1384.083427404133</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>1156.093876506116</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>1156.093876506116</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6679,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2782.232616025903</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N32" t="n">
-        <v>3329.011433084685</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660289</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6731,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6777,13 +6779,13 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390112</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>3439.152482793909</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>3439.152482793909</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>3289.035843381574</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>3289.035843381574</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>3289.035843381574</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>3121.333006756292</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>4466.454649746774</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>4177.351782872417</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>4177.351782872417</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>3887.934612835456</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>3659.945061937439</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>3439.152482793909</v>
       </c>
     </row>
     <row r="35">
@@ -6911,73 +6913,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544767</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551599</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622686</v>
+        <v>1803.682313196075</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294611</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353393</v>
+        <v>2985.817436667297</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.14211023273</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679676</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188664</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
         <v>2760.816196754296</v>
@@ -7011,19 +7013,19 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>953.2024825836316</v>
+        <v>3667.142033691927</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>3498.20585076402</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>3348.089211351685</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>3200.176117769292</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>3053.286170271381</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839438</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J37" t="n">
-        <v>140.6836668953299</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="T37" t="n">
-        <v>1644.746393431758</v>
+        <v>4466.454649746775</v>
       </c>
       <c r="U37" t="n">
-        <v>1355.643526557401</v>
+        <v>4177.351782872418</v>
       </c>
       <c r="V37" t="n">
-        <v>1355.643526557401</v>
+        <v>4177.351782872418</v>
       </c>
       <c r="W37" t="n">
-        <v>1355.643526557401</v>
+        <v>3887.934612835457</v>
       </c>
       <c r="X37" t="n">
-        <v>1355.643526557401</v>
+        <v>3887.934612835457</v>
       </c>
       <c r="Y37" t="n">
-        <v>1134.850947413871</v>
+        <v>3667.142033691927</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L38" t="n">
-        <v>1586.925993846822</v>
+        <v>1299.085123758012</v>
       </c>
       <c r="M38" t="n">
-        <v>2120.457898518746</v>
+        <v>1832.617028429937</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.236715577529</v>
+        <v>2812.369300656584</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906983</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353929</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>3154.54203436749</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>2980.089005086363</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>2831.154595425111</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>2671.917140419656</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>2525.382582446541</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279159</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>2298.517587917026</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839438</v>
+        <v>2279.510296318564</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>2373.187565809181</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>2611.451764789529</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102194</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.42625032451</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297019</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773122</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012238</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505718</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183573</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>4227.758635317989</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086246</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358044</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.517670152512</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387558</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839438</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839438</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839438</v>
+        <v>241.7497938310277</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839438</v>
+        <v>241.7497938310277</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839438</v>
+        <v>241.7497938310277</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839438</v>
+        <v>241.7497938310277</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839438</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7357,25 +7359,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>391.8664332433634</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M41" t="n">
-        <v>2782.232616025903</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N41" t="n">
-        <v>3507.942201196468</v>
+        <v>3175.513123659586</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075805</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>432.2000540015823</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C43" t="n">
-        <v>263.2638710736754</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7591,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T43" t="n">
-        <v>1895.835173990573</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U43" t="n">
-        <v>1606.732307116217</v>
+        <v>1355.643526557402</v>
       </c>
       <c r="V43" t="n">
-        <v>1352.04781891033</v>
+        <v>1100.959038351515</v>
       </c>
       <c r="W43" t="n">
-        <v>1062.630648873369</v>
+        <v>817.054900762407</v>
       </c>
       <c r="X43" t="n">
-        <v>834.6410979753522</v>
+        <v>817.054900762407</v>
       </c>
       <c r="Y43" t="n">
-        <v>613.848518831822</v>
+        <v>596.2623216188769</v>
       </c>
     </row>
     <row r="44">
@@ -7643,7 +7645,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
@@ -7652,25 +7654,25 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294613</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>3515.905934867957</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4018.878405747294</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7731,34 +7733,34 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>242.4509819463048</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C46" t="n">
-        <v>242.4509819463048</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D46" t="n">
-        <v>242.4509819463048</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
         <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7834,22 +7836,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858347</v>
+        <v>930.2094770124706</v>
       </c>
       <c r="Y46" t="n">
-        <v>260.9043113423046</v>
+        <v>709.4168978689405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8687,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>32.86979469803862</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8945,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.017475755657159</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9164,13 +9166,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>297.8289162490789</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,16 +9403,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>315.16792171093</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>-9.485745522397337e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>201.3549853008772</v>
       </c>
       <c r="P23" t="n">
-        <v>315.167921710931</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>189.7998007892644</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>219.3344627260146</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,13 +10126,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>14.45386895940385</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10352,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>246.454569480844</v>
+        <v>342.3170758598104</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476822</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>102.8529310510253</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,16 +10825,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>29.61882225791976</v>
+        <v>63.01588120402386</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,19 +11071,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>180.7381496078621</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>189.1883762200301</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,25 +11302,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>57.67224444723649</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,19 +23466,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>139.9212291526003</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>35.67378197783302</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>56.14606079214039</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>144.1396365907672</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>128.4296311708957</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>147.7570121569884</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>69.40384589849117</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>34.63364147918819</v>
       </c>
       <c r="D25" t="n">
-        <v>143.2671539949588</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>217.5696541920741</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>84.88896555364781</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>161.5810685473175</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>39.08435649120611</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>165.785514715643</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>31.36909754613853</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25566,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>96.38056353535197</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>159.6457400831801</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>5.457902123374197</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>161.5631840798975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>224.4785113852002</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="F2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="G2" t="n">
+        <v>635330.8590191731</v>
+      </c>
+      <c r="H2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="I2" t="n">
         <v>635330.859019173</v>
       </c>
-      <c r="F2" t="n">
-        <v>635330.8590191727</v>
-      </c>
-      <c r="G2" t="n">
-        <v>635330.8590191726</v>
-      </c>
-      <c r="H2" t="n">
-        <v>635330.8590191726</v>
-      </c>
-      <c r="I2" t="n">
-        <v>635330.8590191732</v>
-      </c>
       <c r="J2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="K2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="L2" t="n">
-        <v>635330.8590191726</v>
+        <v>635330.8590191727</v>
       </c>
       <c r="M2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191727</v>
       </c>
       <c r="N2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191733</v>
       </c>
       <c r="O2" t="n">
-        <v>635330.8590191724</v>
+        <v>635330.859019173</v>
       </c>
       <c r="P2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191725</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="I4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="J4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="J4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="L4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="M4" t="n">
-        <v>21619.60799709195</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709191</v>
-      </c>
       <c r="O4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.6079970918</v>
       </c>
       <c r="P4" t="n">
         <v>21619.60799709187</v>
@@ -26473,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26494,22 +26496,22 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208200.1377789568</v>
+        <v>-208200.1377789573</v>
       </c>
       <c r="C6" t="n">
-        <v>381767.7414355873</v>
+        <v>381767.7414355875</v>
       </c>
       <c r="D6" t="n">
-        <v>381767.7414355875</v>
+        <v>381767.7414355874</v>
       </c>
       <c r="E6" t="n">
-        <v>-210049.6812250393</v>
+        <v>-210049.6812250392</v>
       </c>
       <c r="F6" t="n">
-        <v>517327.7327683672</v>
+        <v>517327.7327683673</v>
       </c>
       <c r="G6" t="n">
+        <v>517327.7327683673</v>
+      </c>
+      <c r="H6" t="n">
+        <v>517327.7327683673</v>
+      </c>
+      <c r="I6" t="n">
+        <v>517327.7327683675</v>
+      </c>
+      <c r="J6" t="n">
+        <v>340904.5135757744</v>
+      </c>
+      <c r="K6" t="n">
+        <v>517327.7327683674</v>
+      </c>
+      <c r="L6" t="n">
+        <v>517327.7327683673</v>
+      </c>
+      <c r="M6" t="n">
+        <v>387685.4179294224</v>
+      </c>
+      <c r="N6" t="n">
+        <v>517327.7327683678</v>
+      </c>
+      <c r="O6" t="n">
+        <v>517327.7327683675</v>
+      </c>
+      <c r="P6" t="n">
         <v>517327.7327683671</v>
-      </c>
-      <c r="H6" t="n">
-        <v>517327.7327683672</v>
-      </c>
-      <c r="I6" t="n">
-        <v>517327.7327683677</v>
-      </c>
-      <c r="J6" t="n">
-        <v>340904.5135757745</v>
-      </c>
-      <c r="K6" t="n">
-        <v>517327.7327683673</v>
-      </c>
-      <c r="L6" t="n">
-        <v>517327.7327683672</v>
-      </c>
-      <c r="M6" t="n">
-        <v>387685.4179294226</v>
-      </c>
-      <c r="N6" t="n">
-        <v>517327.7327683673</v>
-      </c>
-      <c r="O6" t="n">
-        <v>517327.7327683669</v>
-      </c>
-      <c r="P6" t="n">
-        <v>517327.7327683673</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,31 +26752,31 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>286.0507898671865</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>43.06722049227068</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27540,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>114.7824519154276</v>
+        <v>213.3156759420319</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>214.7665585234224</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>181.8940949889136</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>152.4611113007521</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>146.6290191212929</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>230.2927004592219</v>
       </c>
       <c r="Y8" t="n">
-        <v>356.8416560162512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>107.4728041046082</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>152.7129118681624</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32096,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34781,22 +34783,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>370.0610812534391</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
@@ -35665,7 +35667,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>251.8117805593766</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35744,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>635.0202028044795</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>854.0890375411569</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>709.4079861890965</v>
       </c>
       <c r="P23" t="n">
-        <v>713.9299079303029</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N26" t="n">
-        <v>742.1016362021759</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>727.387463614234</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597659</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>413.2158551787758</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>754.5075703690632</v>
+        <v>850.3700767480298</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597661</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O34" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400143</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>655.1547664639368</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L38" t="n">
-        <v>485.2089366502519</v>
+        <v>518.6059955963561</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N41" t="n">
-        <v>733.0399850207735</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>697.2413771082495</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>456.4342306666084</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2795848.664807893</v>
+        <v>2790127.052840007</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>363.8088252494408</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>79.65846781433522</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,19 +828,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>12.39397944700521</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>139.9164830972605</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>36.07330930379418</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.37086888118525</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806818</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>139.4384002192471</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>14.5968903908885</v>
+        <v>59.72683757586851</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>140.5010290442965</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1581,13 +1581,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>79.62772012356886</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>163.4028884840288</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
-        <v>23.10718450786062</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247835</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>182.7337974253368</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>132.6131796194396</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>15.11174121957136</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>81.17400253769641</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>140.8206898353893</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>127.059819632465</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>90.5565747765105</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>105.6706584231147</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>37.03343375936875</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>134.6567107128897</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>48.37445137896881</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722632</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>81.17400253769641</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>281.0650962132168</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.57906258117903</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.231144003836948</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>974.6042763530502</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="C2" t="n">
-        <v>974.6042763530502</v>
+        <v>653.0832559835876</v>
       </c>
       <c r="D2" t="n">
-        <v>974.6042763530502</v>
+        <v>294.8175573768371</v>
       </c>
       <c r="E2" t="n">
-        <v>588.8160237548059</v>
+        <v>294.8175573768371</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>287.8720566276336</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>1364.743608328862</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y2" t="n">
-        <v>974.6042763530502</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4415,25 +4415,25 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>488.3016257164451</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C4" t="n">
-        <v>488.3016257164451</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X4" t="n">
-        <v>488.3016257164451</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y4" t="n">
-        <v>488.3016257164451</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1563.476704221264</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C5" t="n">
-        <v>1563.476704221264</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2660.711404852774</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2660.711404852774</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2406.949619490865</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2075.886732147294</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X5" t="n">
-        <v>1563.476704221264</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y5" t="n">
-        <v>1563.476704221264</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4658,31 +4658,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.9192350259437</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564835</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.692722656504</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>2334.714009270569</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D10" t="n">
-        <v>2184.597369858234</v>
+        <v>409.0761618661917</v>
       </c>
       <c r="E10" t="n">
-        <v>2184.597369858234</v>
+        <v>261.1630682837986</v>
       </c>
       <c r="F10" t="n">
-        <v>2037.707422360324</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="G10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>2498.624145662039</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5044,25 +5044,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5071,16 +5071,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,64 +5096,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>656.9233744498081</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C13" t="n">
-        <v>656.9233744498081</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D13" t="n">
-        <v>506.8067350374723</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>334.8069429879243</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
@@ -5229,22 +5229,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1684.225541402673</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1395.122674528316</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1395.122674528316</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1105.705504491355</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>877.7159535933382</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>656.9233744498081</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="14">
@@ -5281,25 +5281,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3195.001976422504</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4074.966626751958</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P14" t="n">
-        <v>4469.740993109136</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5360,10 +5360,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>784.0235789048305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5466,22 +5466,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1509.773701977918</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.773701977918</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1255.089213772031</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>965.6720437350702</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>965.6720437350702</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>965.6720437350702</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.44016540742</v>
+        <v>304.0396960664507</v>
       </c>
       <c r="K17" t="n">
-        <v>913.1101661838546</v>
+        <v>637.8590697562972</v>
       </c>
       <c r="L17" t="n">
-        <v>1364.144379432264</v>
+        <v>1088.893283004706</v>
       </c>
       <c r="M17" t="n">
-        <v>1897.676284104188</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330835</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
         <v>1715.000032008795</v>
@@ -5615,13 +5615,13 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.6246893481016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5676,16 +5676,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5700,25 +5700,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689059</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258585</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
         <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783413</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>909.2731541783413</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>909.2731541783413</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.2731541783413</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5743,55 +5743,55 @@
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427196</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196075</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2649.23046036182</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420602</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973205</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161936</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549423</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494868</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763718</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089899</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468574</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M21" t="n">
         <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5876,7 +5876,7 @@
         <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517389</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3697.132084008988</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>3528.195901081081</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>3378.079261668745</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>3378.079261668745</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>3231.189314170835</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>4688.221265177249</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>4688.221265177249</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>4399.118398302892</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>4214.538804943966</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>3925.121634907006</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>3697.132084008988</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>3697.132084008988</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
         <v>1646.988141143014</v>
@@ -5977,64 +5977,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839486</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277735</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176201</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1650.184003770975</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.715908442899</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3163.468180669546</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996752</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6089,7 +6089,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6098,22 +6098,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>838.2368056224238</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>704.2840989361212</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>704.2840989361212</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.643526557402</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V25" t="n">
-        <v>1355.643526557402</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W25" t="n">
-        <v>1066.226356520441</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>838.2368056224238</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>838.2368056224238</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.845814427773</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176197</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366029</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195858</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>2762.02852125464</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6253,25 +6253,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390112</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,16 +6323,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>709.4168978689405</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C28" t="n">
-        <v>540.4807149410336</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6387,16 +6387,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
         <v>1646.12566951853</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1577.410141987876</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>1322.725653781989</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W28" t="n">
-        <v>1033.308483745028</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X28" t="n">
-        <v>891.0653626991802</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y28" t="n">
-        <v>891.0653626991802</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="29">
@@ -6448,52 +6448,52 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427196</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2368.748013620957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3348.500285847604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3851.472756726941</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353929</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
         <v>1715.000032008795</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>974.4454116758762</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>805.5092287479694</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6627,13 +6627,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
         <v>1646.12566951853</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1475.554715057174</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V31" t="n">
-        <v>1384.083427404133</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W31" t="n">
-        <v>1384.083427404133</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X31" t="n">
-        <v>1156.093876506116</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y31" t="n">
-        <v>1156.093876506116</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427196</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2368.748013620957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2915.526830679739</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660289</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107235</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6755,58 +6755,58 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390112</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3439.152482793909</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C34" t="n">
-        <v>3439.152482793909</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D34" t="n">
-        <v>3289.035843381574</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E34" t="n">
-        <v>3289.035843381574</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F34" t="n">
-        <v>3289.035843381574</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G34" t="n">
-        <v>3121.333006756292</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945065</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4688.221265177248</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>4466.454649746774</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>4177.351782872417</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>4177.351782872417</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W34" t="n">
-        <v>3887.934612835456</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="X34" t="n">
-        <v>3659.945061937439</v>
+        <v>1025.798548728682</v>
       </c>
       <c r="Y34" t="n">
-        <v>3439.152482793909</v>
+        <v>988.3910398808349</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427196</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196075</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N35" t="n">
-        <v>2985.817436667297</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O35" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3667.142033691927</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>3498.20585076402</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>3348.089211351685</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>3200.176117769292</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>3053.286170271381</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4688.221265177249</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>4466.454649746775</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>4177.351782872418</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>4177.351782872418</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>3887.934612835457</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>3887.934612835457</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>3667.142033691927</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7171,55 +7171,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176197</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1299.085123758012</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>1832.617028429937</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2812.369300656584</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3154.54203436749</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>2980.089005086363</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>2671.917140419656</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>2525.382582446541</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>2389.019482279159</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>2611.451764789529</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>2978.149925102194</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
-        <v>3425.42625032451</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>4309.910573297019</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>4620.410164773122</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>4778.051722419722</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>4777.907369012238</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>4648.469482505718</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>4455.826482183573</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>4227.758635317989</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>3992.606527086246</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>3738.369170358044</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>3530.517670152512</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>3322.757371387558</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>391.8664332433634</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8664332433634</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>241.7497938310277</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>241.7497938310277</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>241.7497938310277</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7497938310277</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689059</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258585</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783413</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413808</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>391.8664332433634</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>391.8664332433634</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176197</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L41" t="n">
-        <v>1650.184003770974</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M41" t="n">
-        <v>2628.734306600803</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N41" t="n">
-        <v>3175.513123659586</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O41" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193585</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>414.6138567886371</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C43" t="n">
-        <v>245.6776738607302</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839444</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839444</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839444</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1355.643526557402</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>1100.959038351515</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W43" t="n">
-        <v>817.054900762407</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X43" t="n">
-        <v>817.054900762407</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y43" t="n">
-        <v>596.2623216188769</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,7 +7633,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
@@ -7645,7 +7645,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
@@ -7654,22 +7654,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M44" t="n">
-        <v>2536.15366264131</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>3515.905934867957</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
-        <v>4018.878405747294</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7684,16 +7684,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7733,28 +7733,28 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>709.4168978689405</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C46" t="n">
-        <v>540.4807149410336</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839444</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839444</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.65758193153</v>
+        <v>1591.413930162615</v>
       </c>
       <c r="U46" t="n">
-        <v>1475.554715057174</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="V46" t="n">
-        <v>1220.870226851287</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="W46" t="n">
-        <v>931.4530568143261</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="X46" t="n">
-        <v>930.2094770124706</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="Y46" t="n">
-        <v>709.4168978689405</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8692,28 +8692,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>32.86979469803862</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.017475755657159</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>19.7975057161928</v>
       </c>
       <c r="K17" t="n">
-        <v>297.8289162490789</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>315.16792171093</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-9.485745522397337e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,19 +9646,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>201.3549853008772</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>219.3344627260146</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,13 +10126,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>14.45386895940385</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10357,22 +10357,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>342.3170758598104</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>102.8529310510253</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>63.01588120402386</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>189.1883762200301</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11302,25 +11302,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>57.67224444723649</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.52477921473169</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.9212291526003</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>56.14606079214039</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
-        <v>144.1396365907672</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>69.40384589849117</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.63364147918819</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>271.1000969860415</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>84.85180572133181</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>84.88896555364781</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>52.77216054947228</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>161.5810685473175</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>39.08435649120611</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>181.5512195927261</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>31.36909754613853</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>96.38056353535197</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>84.85180572133181</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>5.457902123374197</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>136.9698866949902</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>224.4785113852002</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.0891526798</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191731</v>
       </c>
       <c r="F2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="G2" t="n">
-        <v>635330.8590191731</v>
+        <v>635330.859019173</v>
       </c>
       <c r="H2" t="n">
         <v>635330.8590191728</v>
@@ -26337,25 +26337,25 @@
         <v>635330.859019173</v>
       </c>
       <c r="J2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="K2" t="n">
+        <v>635330.8590191726</v>
+      </c>
+      <c r="L2" t="n">
         <v>635330.8590191728</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>635330.8590191728</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>635330.8590191726</v>
+      </c>
+      <c r="O2" t="n">
         <v>635330.8590191727</v>
       </c>
-      <c r="M2" t="n">
-        <v>635330.8590191727</v>
-      </c>
-      <c r="N2" t="n">
-        <v>635330.8590191733</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>635330.859019173</v>
-      </c>
-      <c r="P2" t="n">
-        <v>635330.8590191725</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924298</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="F4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="K4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="G4" t="n">
-        <v>21619.60799709185</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709185</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709185</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="K4" t="n">
-        <v>21619.60799709184</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709185</v>
-      </c>
       <c r="M4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.6079970918</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208200.1377789573</v>
+        <v>-208200.1377789572</v>
       </c>
       <c r="C6" t="n">
-        <v>381767.7414355875</v>
+        <v>381767.7414355873</v>
       </c>
       <c r="D6" t="n">
-        <v>381767.7414355874</v>
+        <v>381767.7414355873</v>
       </c>
       <c r="E6" t="n">
-        <v>-210049.6812250392</v>
+        <v>-210721.6361272969</v>
       </c>
       <c r="F6" t="n">
-        <v>517327.7327683673</v>
+        <v>516655.7778661094</v>
       </c>
       <c r="G6" t="n">
-        <v>517327.7327683673</v>
+        <v>516655.7778661096</v>
       </c>
       <c r="H6" t="n">
-        <v>517327.7327683673</v>
+        <v>516655.7778661094</v>
       </c>
       <c r="I6" t="n">
-        <v>517327.7327683675</v>
+        <v>516655.7778661096</v>
       </c>
       <c r="J6" t="n">
-        <v>340904.5135757744</v>
+        <v>340232.5586735163</v>
       </c>
       <c r="K6" t="n">
-        <v>517327.7327683674</v>
+        <v>516655.7778661092</v>
       </c>
       <c r="L6" t="n">
-        <v>517327.7327683673</v>
+        <v>516655.7778661094</v>
       </c>
       <c r="M6" t="n">
-        <v>387685.4179294224</v>
+        <v>387013.4630271646</v>
       </c>
       <c r="N6" t="n">
-        <v>517327.7327683678</v>
+        <v>516655.7778661092</v>
       </c>
       <c r="O6" t="n">
-        <v>517327.7327683675</v>
+        <v>516655.7778661093</v>
       </c>
       <c r="P6" t="n">
-        <v>517327.7327683671</v>
+        <v>516655.7778661096</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,31 +26752,31 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>43.06722049227068</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>334.1257022064598</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>271.8179770150692</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>213.3156759420319</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>214.7665585234224</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>138.3424035051773</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152.4611113007521</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>74.74425144011315</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>230.2927004592219</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>152.7129118681624</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-9.285000281860923e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32077,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33183,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33335,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353153</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,28 +35412,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>370.0610812534391</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.8117805593766</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>210.5845066849054</v>
       </c>
       <c r="K17" t="n">
-        <v>635.0202028044795</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509647</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>854.0890375411569</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509647</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>709.4079861890965</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859626</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407864</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>727.387463614234</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597659</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882193</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>413.2158551787758</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>850.3700767480298</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597661</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427827</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>655.1547664639368</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>518.6059955963561</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509647</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>697.2413771082495</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609563</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>456.4342306666084</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2790127.052840007</v>
+        <v>2793532.543964456</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>79.65846781433522</v>
+        <v>362.9177222400701</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>28.5103304121437</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>14.46389722690856</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>60.46179076613072</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>36.07330930379418</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295489</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806818</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>357.9451499147347</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295491</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586851</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1426,10 +1426,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>140.5010290442965</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534539</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744762</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>15.11174121957136</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>98.7649239448572</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>81.17400253769641</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>165.3209102199961</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>127.059819632465</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.02146927219732</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,16 +3246,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>37.03343375936875</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>52.74455946606851</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>270.0697021486465</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>81.17400253769641</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
-        <v>82.57906258117903</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1022.045772923999</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="C2" t="n">
-        <v>653.0832559835876</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="D2" t="n">
-        <v>294.8175573768371</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="E2" t="n">
-        <v>294.8175573768371</v>
+        <v>984.9784204331349</v>
       </c>
       <c r="F2" t="n">
-        <v>287.8720566276336</v>
+        <v>573.9925156435274</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X2" t="n">
-        <v>1408.645612988121</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y2" t="n">
-        <v>1408.645612988121</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,22 +4418,22 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>713.5189870075369</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>713.5189870075369</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>563.4023475952011</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.5129866402885</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>494.1501011631121</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>135.8844025563616</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2660.711404852774</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2660.711404852774</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2406.949619490865</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2075.886732147294</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W5" t="n">
-        <v>1723.11807687718</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X5" t="n">
-        <v>1349.6523186161</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y5" t="n">
-        <v>959.5129866402885</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>325.6879402326642</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>156.7517573047573</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>507.336405062904</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037878</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>807.393450832883</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>396.4075460432754</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785274</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661917</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837986</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858882</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5053,7 +5053,7 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5080,7 +5080,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>334.8069429879243</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5244,7 +5244,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>481.6968904858347</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5293,37 +5293,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5494,37 +5494,37 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>304.0396960664507</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>637.8590697562972</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1088.893283004706</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>1622.425187676631</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N17" t="n">
         <v>2602.177459903277</v>
@@ -5545,13 +5545,13 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.42128699119</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5618,16 +5618,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K20" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5864,10 +5864,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
         <v>1554.419908487875</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O22" t="n">
         <v>1646.12566951853</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5986,31 +5986,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736754</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1437.79612418831</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>1183.111635982423</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>893.6944659454626</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X25" t="n">
-        <v>665.7049150474453</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.9123359039152</v>
+        <v>801.6097761177758</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>416.1091927888621</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1070.832524924162</v>
+        <v>1014.851249206415</v>
       </c>
       <c r="L26" t="n">
-        <v>1521.86673817257</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M26" t="n">
-        <v>2055.398642844495</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6253,25 +6253,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>492.7083461157126</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C28" t="n">
-        <v>323.7721631878057</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D28" t="n">
-        <v>323.7721631878057</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E28" t="n">
-        <v>323.7721631878057</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>323.7721631878057</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1507.836306285022</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1507.836306285022</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.556111024461</v>
+        <v>1253.151818079135</v>
       </c>
       <c r="W28" t="n">
-        <v>1123.1389409875</v>
+        <v>963.7346480421742</v>
       </c>
       <c r="X28" t="n">
-        <v>895.1493900894825</v>
+        <v>963.7346480421742</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.3568109459524</v>
+        <v>742.942068898644</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,16 +6572,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.4972173763014</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>300.048425655595</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>300.048425655595</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>300.048425655595</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>153.1584781576846</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1385.724257814702</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1131.039769608815</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>841.6225995718539</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>613.6330486738366</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>392.8404695303064</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6755,58 +6755,58 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>806.7425750505952</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1253.788099626699</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1253.788099626699</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>1025.798548728682</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>988.3910398808349</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6916,25 +6916,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6943,46 +6943,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>295.0555540245452</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>148.838367242403</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3851.472756726941</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,10 +7356,10 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
         <v>1559.196154437386</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>818.2062848686767</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1682.725100522031</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>492.7083461157126</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1412.556111024461</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1123.1389409875</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>895.1493900894825</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>674.3568109459524</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1898.858917622687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1591.413930162615</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1302.311063288258</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1302.311063288258</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1302.311063288258</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>1302.311063288258</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1302.311063288258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8701,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>344.7025836476837</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>19.7975057161928</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>344.7025836476832</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.9990175570123</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>231.5010718068643</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,10 +10837,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>226.7688596193111</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>201.9664098701115</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>344.7025836476828</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>25.52477921473169</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143245</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696571</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>271.1000969860415</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>126.94473144418</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>84.85180572133181</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>54.22803905617315</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.77216054947228</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>109.0043389868309</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>181.5512195927261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>43.60786094376958</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>16.14213605696636</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>84.85180572133181</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25836,13 +25836,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
-        <v>136.9698866949902</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.0891526798</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775282.0891526798</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>635330.8590191731</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="F2" t="n">
         <v>635330.8590191728</v>
@@ -26334,28 +26334,28 @@
         <v>635330.8590191728</v>
       </c>
       <c r="I2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="J2" t="n">
         <v>635330.859019173</v>
       </c>
-      <c r="J2" t="n">
-        <v>635330.8590191727</v>
-      </c>
       <c r="K2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="L2" t="n">
         <v>635330.8590191726</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>635330.859019173</v>
+      </c>
+      <c r="N2" t="n">
         <v>635330.8590191728</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>635330.8590191728</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>635330.8590191726</v>
-      </c>
-      <c r="O2" t="n">
-        <v>635330.8590191727</v>
-      </c>
-      <c r="P2" t="n">
-        <v>635330.859019173</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709182</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709183</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709188</v>
@@ -26450,16 +26450,16 @@
         <v>21619.60799709186</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26487,28 +26487,28 @@
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26524,46 +26524,46 @@
         <v>-208200.1377789572</v>
       </c>
       <c r="C6" t="n">
-        <v>381767.7414355873</v>
+        <v>381767.7414355876</v>
       </c>
       <c r="D6" t="n">
-        <v>381767.7414355873</v>
+        <v>381767.7414355875</v>
       </c>
       <c r="E6" t="n">
-        <v>-210721.6361272969</v>
+        <v>-210116.8767152652</v>
       </c>
       <c r="F6" t="n">
-        <v>516655.7778661094</v>
+        <v>517260.5372781416</v>
       </c>
       <c r="G6" t="n">
-        <v>516655.7778661096</v>
+        <v>517260.5372781417</v>
       </c>
       <c r="H6" t="n">
-        <v>516655.7778661094</v>
+        <v>517260.5372781414</v>
       </c>
       <c r="I6" t="n">
-        <v>516655.7778661096</v>
+        <v>517260.5372781416</v>
       </c>
       <c r="J6" t="n">
-        <v>340232.5586735163</v>
+        <v>340837.3180855487</v>
       </c>
       <c r="K6" t="n">
-        <v>516655.7778661092</v>
+        <v>517260.5372781415</v>
       </c>
       <c r="L6" t="n">
-        <v>516655.7778661094</v>
+        <v>517260.5372781414</v>
       </c>
       <c r="M6" t="n">
-        <v>387013.4630271646</v>
+        <v>387618.2224391967</v>
       </c>
       <c r="N6" t="n">
-        <v>516655.7778661092</v>
+        <v>517260.5372781415</v>
       </c>
       <c r="O6" t="n">
-        <v>516655.7778661093</v>
+        <v>517260.5372781415</v>
       </c>
       <c r="P6" t="n">
-        <v>516655.7778661096</v>
+        <v>517260.5372781414</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26755,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.225657850375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>334.1257022064598</v>
+        <v>50.86644778072491</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>271.8179770150692</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>321.4685793061311</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
-        <v>138.3424035051773</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>46.83478528866341</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>74.74425144011315</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>11.78595076373438</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>46.8347852886633</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831824</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.285000281860923e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28265,7 +28265,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -31278,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31299,25 +31299,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31840,7 +31840,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -32077,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32806,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33271,7 +33271,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33754,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34210,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34222,7 +34222,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35421,10 +35421,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>897.0044190605952</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35661,7 +35661,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35670,7 +35670,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>210.5845066849054</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -35895,7 +35895,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400155</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>323.7860185257249</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>568.6923583622648</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36606,10 +36606,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -37311,7 +37311,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37402,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37545,10 +37545,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37557,10 +37557,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>625.5308458386829</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>539.157696425512</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37870,7 +37870,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>800.292698040015</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
